--- a/Chronology_R_S.xlsx
+++ b/Chronology_R_S.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kristina\Desktop\climate_response\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF438A7D-DB9F-4BF4-9240-97601E612B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE4B99E-5455-4B6A-A183-24C2613BE987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11925" yWindow="30" windowWidth="16845" windowHeight="15600" tabRatio="741" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="0" windowWidth="20235" windowHeight="15600" tabRatio="741" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="R" sheetId="6" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="8">
   <si>
     <t>Year</t>
   </si>
@@ -42616,8 +42616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D6D0EE2-2E29-4972-A862-FF68218F6B23}">
   <dimension ref="A1:B189"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B189"/>
+    <sheetView topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="H185" sqref="H185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -62150,15 +62150,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B704465B-4448-455A-B7B6-9BC5DFB68981}">
-  <dimension ref="A1:P516"/>
+  <dimension ref="A1:AD516"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:P57"/>
+    <sheetView tabSelected="1" topLeftCell="J21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -62201,8 +62201,29 @@
       <c r="P1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1509</v>
       </c>
@@ -62228,10 +62249,46 @@
         <v>1.383</v>
       </c>
       <c r="P2">
-        <v>0.84699999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="S2">
+        <v>1966</v>
+      </c>
+      <c r="T2">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="U2">
+        <v>1966</v>
+      </c>
+      <c r="V2">
+        <v>0.98</v>
+      </c>
+      <c r="W2">
+        <v>1966</v>
+      </c>
+      <c r="X2">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="Y2">
+        <v>1966</v>
+      </c>
+      <c r="Z2">
+        <v>1.0549999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>1966</v>
+      </c>
+      <c r="AB2">
+        <v>1.383</v>
+      </c>
+      <c r="AC2">
+        <v>1966</v>
+      </c>
+      <c r="AD2">
+        <v>0.84299999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1510</v>
       </c>
@@ -62257,10 +62314,46 @@
         <v>1.397</v>
       </c>
       <c r="P3">
-        <v>1.3420000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="S3">
+        <v>1967</v>
+      </c>
+      <c r="T3">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="U3">
+        <v>1967</v>
+      </c>
+      <c r="V3">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="W3">
+        <v>1967</v>
+      </c>
+      <c r="X3">
+        <v>1.01</v>
+      </c>
+      <c r="Y3">
+        <v>1967</v>
+      </c>
+      <c r="Z3">
+        <v>1.206</v>
+      </c>
+      <c r="AA3">
+        <v>1967</v>
+      </c>
+      <c r="AB3">
+        <v>1.397</v>
+      </c>
+      <c r="AC3">
+        <v>1967</v>
+      </c>
+      <c r="AD3">
+        <v>0.84699999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1511</v>
       </c>
@@ -62286,10 +62379,46 @@
         <v>1.3320000000000001</v>
       </c>
       <c r="P4">
-        <v>1.446</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1.3420000000000001</v>
+      </c>
+      <c r="S4">
+        <v>1968</v>
+      </c>
+      <c r="T4">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="U4">
+        <v>1968</v>
+      </c>
+      <c r="V4">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="W4">
+        <v>1968</v>
+      </c>
+      <c r="X4">
+        <v>0.52</v>
+      </c>
+      <c r="Y4">
+        <v>1968</v>
+      </c>
+      <c r="Z4">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="AA4">
+        <v>1968</v>
+      </c>
+      <c r="AB4">
+        <v>1.3320000000000001</v>
+      </c>
+      <c r="AC4">
+        <v>1968</v>
+      </c>
+      <c r="AD4">
+        <v>1.3420000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1512</v>
       </c>
@@ -62315,10 +62444,46 @@
         <v>1.43</v>
       </c>
       <c r="P5">
-        <v>1.2589999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1.446</v>
+      </c>
+      <c r="S5">
+        <v>1969</v>
+      </c>
+      <c r="T5">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="U5">
+        <v>1969</v>
+      </c>
+      <c r="V5">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="W5">
+        <v>1969</v>
+      </c>
+      <c r="X5">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="Y5">
+        <v>1969</v>
+      </c>
+      <c r="Z5">
+        <v>1.087</v>
+      </c>
+      <c r="AA5">
+        <v>1969</v>
+      </c>
+      <c r="AB5">
+        <v>1.43</v>
+      </c>
+      <c r="AC5">
+        <v>1969</v>
+      </c>
+      <c r="AD5">
+        <v>1.446</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1513</v>
       </c>
@@ -62344,10 +62509,46 @@
         <v>1.3779999999999999</v>
       </c>
       <c r="P6">
-        <v>1.0309999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1.2589999999999999</v>
+      </c>
+      <c r="S6">
+        <v>1970</v>
+      </c>
+      <c r="T6">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="U6">
+        <v>1970</v>
+      </c>
+      <c r="V6">
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="W6">
+        <v>1970</v>
+      </c>
+      <c r="X6">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="Y6">
+        <v>1970</v>
+      </c>
+      <c r="Z6">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="AA6">
+        <v>1970</v>
+      </c>
+      <c r="AB6">
+        <v>1.3779999999999999</v>
+      </c>
+      <c r="AC6">
+        <v>1970</v>
+      </c>
+      <c r="AD6">
+        <v>1.2589999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1514</v>
       </c>
@@ -62373,10 +62574,46 @@
         <v>1.4430000000000001</v>
       </c>
       <c r="P7">
-        <v>0.71899999999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1.0309999999999999</v>
+      </c>
+      <c r="S7">
+        <v>1971</v>
+      </c>
+      <c r="T7">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="U7">
+        <v>1971</v>
+      </c>
+      <c r="V7">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="W7">
+        <v>1971</v>
+      </c>
+      <c r="X7">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="Y7">
+        <v>1971</v>
+      </c>
+      <c r="Z7">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="AA7">
+        <v>1971</v>
+      </c>
+      <c r="AB7">
+        <v>1.4430000000000001</v>
+      </c>
+      <c r="AC7">
+        <v>1971</v>
+      </c>
+      <c r="AD7">
+        <v>1.0309999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1515</v>
       </c>
@@ -62402,10 +62639,46 @@
         <v>0.80100000000000005</v>
       </c>
       <c r="P8">
-        <v>1.0489999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="S8">
+        <v>1972</v>
+      </c>
+      <c r="T8">
+        <v>0.87</v>
+      </c>
+      <c r="U8">
+        <v>1972</v>
+      </c>
+      <c r="V8">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="W8">
+        <v>1972</v>
+      </c>
+      <c r="X8">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="Y8">
+        <v>1972</v>
+      </c>
+      <c r="Z8">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="AA8">
+        <v>1972</v>
+      </c>
+      <c r="AB8">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="AC8">
+        <v>1972</v>
+      </c>
+      <c r="AD8">
+        <v>0.71899999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1516</v>
       </c>
@@ -62431,10 +62704,46 @@
         <v>1.4690000000000001</v>
       </c>
       <c r="P9">
-        <v>1.107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1.0489999999999999</v>
+      </c>
+      <c r="S9">
+        <v>1973</v>
+      </c>
+      <c r="T9">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="U9">
+        <v>1973</v>
+      </c>
+      <c r="V9">
+        <v>1.06</v>
+      </c>
+      <c r="W9">
+        <v>1973</v>
+      </c>
+      <c r="X9">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="Y9">
+        <v>1973</v>
+      </c>
+      <c r="Z9">
+        <v>0.38</v>
+      </c>
+      <c r="AA9">
+        <v>1973</v>
+      </c>
+      <c r="AB9">
+        <v>1.4690000000000001</v>
+      </c>
+      <c r="AC9">
+        <v>1973</v>
+      </c>
+      <c r="AD9">
+        <v>1.0489999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1517</v>
       </c>
@@ -62460,10 +62769,46 @@
         <v>2.02</v>
       </c>
       <c r="P10">
-        <v>0.81599999999999995</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1.107</v>
+      </c>
+      <c r="S10">
+        <v>1974</v>
+      </c>
+      <c r="T10">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="U10">
+        <v>1974</v>
+      </c>
+      <c r="V10">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="W10">
+        <v>1974</v>
+      </c>
+      <c r="X10">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="Y10">
+        <v>1974</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>1974</v>
+      </c>
+      <c r="AB10">
+        <v>2.02</v>
+      </c>
+      <c r="AC10">
+        <v>1974</v>
+      </c>
+      <c r="AD10">
+        <v>1.107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1518</v>
       </c>
@@ -62489,10 +62834,46 @@
         <v>1.204</v>
       </c>
       <c r="P11">
-        <v>1.109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="S11">
+        <v>1975</v>
+      </c>
+      <c r="T11">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="U11">
+        <v>1975</v>
+      </c>
+      <c r="V11">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="W11">
+        <v>1975</v>
+      </c>
+      <c r="X11">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="Y11">
+        <v>1975</v>
+      </c>
+      <c r="Z11">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="AA11">
+        <v>1975</v>
+      </c>
+      <c r="AB11">
+        <v>1.204</v>
+      </c>
+      <c r="AC11">
+        <v>1975</v>
+      </c>
+      <c r="AD11">
+        <v>0.81599999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1519</v>
       </c>
@@ -62518,10 +62899,46 @@
         <v>1.355</v>
       </c>
       <c r="P12">
-        <v>1.022</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1.109</v>
+      </c>
+      <c r="S12">
+        <v>1976</v>
+      </c>
+      <c r="T12">
+        <v>1.012</v>
+      </c>
+      <c r="U12">
+        <v>1976</v>
+      </c>
+      <c r="V12">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="W12">
+        <v>1976</v>
+      </c>
+      <c r="X12">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="Y12">
+        <v>1976</v>
+      </c>
+      <c r="Z12">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="AA12">
+        <v>1976</v>
+      </c>
+      <c r="AB12">
+        <v>1.355</v>
+      </c>
+      <c r="AC12">
+        <v>1976</v>
+      </c>
+      <c r="AD12">
+        <v>1.109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1520</v>
       </c>
@@ -62547,10 +62964,46 @@
         <v>1.6830000000000001</v>
       </c>
       <c r="P13">
-        <v>0.68500000000000005</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1.022</v>
+      </c>
+      <c r="S13">
+        <v>1977</v>
+      </c>
+      <c r="T13">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="U13">
+        <v>1977</v>
+      </c>
+      <c r="V13">
+        <v>0.876</v>
+      </c>
+      <c r="W13">
+        <v>1977</v>
+      </c>
+      <c r="X13">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="Y13">
+        <v>1977</v>
+      </c>
+      <c r="Z13">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="AA13">
+        <v>1977</v>
+      </c>
+      <c r="AB13">
+        <v>1.6830000000000001</v>
+      </c>
+      <c r="AC13">
+        <v>1977</v>
+      </c>
+      <c r="AD13">
+        <v>1.022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1521</v>
       </c>
@@ -62576,10 +63029,46 @@
         <v>0.46899999999999997</v>
       </c>
       <c r="P14">
-        <v>1.052</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="S14">
+        <v>1978</v>
+      </c>
+      <c r="T14">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="U14">
+        <v>1978</v>
+      </c>
+      <c r="V14">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="W14">
+        <v>1978</v>
+      </c>
+      <c r="X14">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="Y14">
+        <v>1978</v>
+      </c>
+      <c r="Z14">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="AA14">
+        <v>1978</v>
+      </c>
+      <c r="AB14">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="AC14">
+        <v>1978</v>
+      </c>
+      <c r="AD14">
+        <v>0.68500000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1522</v>
       </c>
@@ -62605,10 +63094,46 @@
         <v>0.51700000000000002</v>
       </c>
       <c r="P15">
-        <v>1.1719999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1.052</v>
+      </c>
+      <c r="S15">
+        <v>1979</v>
+      </c>
+      <c r="T15">
+        <v>1.0409999999999999</v>
+      </c>
+      <c r="U15">
+        <v>1979</v>
+      </c>
+      <c r="V15">
+        <v>1.173</v>
+      </c>
+      <c r="W15">
+        <v>1979</v>
+      </c>
+      <c r="X15">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="Y15">
+        <v>1979</v>
+      </c>
+      <c r="Z15">
+        <v>1.0269999999999999</v>
+      </c>
+      <c r="AA15">
+        <v>1979</v>
+      </c>
+      <c r="AB15">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="AC15">
+        <v>1979</v>
+      </c>
+      <c r="AD15">
+        <v>1.052</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1523</v>
       </c>
@@ -62634,10 +63159,46 @@
         <v>1.073</v>
       </c>
       <c r="P16">
-        <v>0.86399999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1.1719999999999999</v>
+      </c>
+      <c r="S16">
+        <v>1980</v>
+      </c>
+      <c r="T16">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="U16">
+        <v>1980</v>
+      </c>
+      <c r="V16">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="W16">
+        <v>1980</v>
+      </c>
+      <c r="X16">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="Y16">
+        <v>1980</v>
+      </c>
+      <c r="Z16">
+        <v>0.158</v>
+      </c>
+      <c r="AA16">
+        <v>1980</v>
+      </c>
+      <c r="AB16">
+        <v>1.073</v>
+      </c>
+      <c r="AC16">
+        <v>1980</v>
+      </c>
+      <c r="AD16">
+        <v>1.1719999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1524</v>
       </c>
@@ -62663,10 +63224,46 @@
         <v>0.90400000000000003</v>
       </c>
       <c r="P17">
-        <v>0.46500000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="S17">
+        <v>1981</v>
+      </c>
+      <c r="T17">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="U17">
+        <v>1981</v>
+      </c>
+      <c r="V17">
+        <v>0.95</v>
+      </c>
+      <c r="W17">
+        <v>1981</v>
+      </c>
+      <c r="X17">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="Y17">
+        <v>1981</v>
+      </c>
+      <c r="Z17">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="AA17">
+        <v>1981</v>
+      </c>
+      <c r="AB17">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="AC17">
+        <v>1981</v>
+      </c>
+      <c r="AD17">
+        <v>0.86399999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1525</v>
       </c>
@@ -62692,10 +63289,46 @@
         <v>1.0209999999999999</v>
       </c>
       <c r="P18">
-        <v>0.871</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="S18">
+        <v>1982</v>
+      </c>
+      <c r="T18">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="U18">
+        <v>1982</v>
+      </c>
+      <c r="V18">
+        <v>0.876</v>
+      </c>
+      <c r="W18">
+        <v>1982</v>
+      </c>
+      <c r="X18">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="Y18">
+        <v>1982</v>
+      </c>
+      <c r="Z18">
+        <v>0.69</v>
+      </c>
+      <c r="AA18">
+        <v>1982</v>
+      </c>
+      <c r="AB18">
+        <v>1.0209999999999999</v>
+      </c>
+      <c r="AC18">
+        <v>1982</v>
+      </c>
+      <c r="AD18">
+        <v>0.46500000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1526</v>
       </c>
@@ -62721,10 +63354,46 @@
         <v>1.206</v>
       </c>
       <c r="P19">
-        <v>0.82399999999999995</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.871</v>
+      </c>
+      <c r="S19">
+        <v>1983</v>
+      </c>
+      <c r="T19">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="U19">
+        <v>1983</v>
+      </c>
+      <c r="V19">
+        <v>1.01</v>
+      </c>
+      <c r="W19">
+        <v>1983</v>
+      </c>
+      <c r="X19">
+        <v>1.077</v>
+      </c>
+      <c r="Y19">
+        <v>1983</v>
+      </c>
+      <c r="Z19">
+        <v>0.65</v>
+      </c>
+      <c r="AA19">
+        <v>1983</v>
+      </c>
+      <c r="AB19">
+        <v>1.206</v>
+      </c>
+      <c r="AC19">
+        <v>1983</v>
+      </c>
+      <c r="AD19">
+        <v>0.871</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1527</v>
       </c>
@@ -62750,10 +63419,46 @@
         <v>0.68899999999999995</v>
       </c>
       <c r="P20">
-        <v>1.379</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="S20">
+        <v>1984</v>
+      </c>
+      <c r="T20">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="U20">
+        <v>1984</v>
+      </c>
+      <c r="V20">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="W20">
+        <v>1984</v>
+      </c>
+      <c r="X20">
+        <v>1.0840000000000001</v>
+      </c>
+      <c r="Y20">
+        <v>1984</v>
+      </c>
+      <c r="Z20">
+        <v>0.998</v>
+      </c>
+      <c r="AA20">
+        <v>1984</v>
+      </c>
+      <c r="AB20">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="AC20">
+        <v>1984</v>
+      </c>
+      <c r="AD20">
+        <v>0.82399999999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1528</v>
       </c>
@@ -62779,10 +63484,46 @@
         <v>1.208</v>
       </c>
       <c r="P21">
-        <v>1.008</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1.379</v>
+      </c>
+      <c r="S21">
+        <v>1985</v>
+      </c>
+      <c r="T21">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="U21">
+        <v>1985</v>
+      </c>
+      <c r="V21">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="W21">
+        <v>1985</v>
+      </c>
+      <c r="X21">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="Y21">
+        <v>1985</v>
+      </c>
+      <c r="Z21">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="AA21">
+        <v>1985</v>
+      </c>
+      <c r="AB21">
+        <v>1.208</v>
+      </c>
+      <c r="AC21">
+        <v>1985</v>
+      </c>
+      <c r="AD21">
+        <v>1.379</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1529</v>
       </c>
@@ -62808,10 +63549,46 @@
         <v>1.3959999999999999</v>
       </c>
       <c r="P22">
-        <v>0.51400000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1.008</v>
+      </c>
+      <c r="S22">
+        <v>1986</v>
+      </c>
+      <c r="T22">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="U22">
+        <v>1986</v>
+      </c>
+      <c r="V22">
+        <v>0.46</v>
+      </c>
+      <c r="W22">
+        <v>1986</v>
+      </c>
+      <c r="X22">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="Y22">
+        <v>1986</v>
+      </c>
+      <c r="Z22">
+        <v>0.873</v>
+      </c>
+      <c r="AA22">
+        <v>1986</v>
+      </c>
+      <c r="AB22">
+        <v>1.3959999999999999</v>
+      </c>
+      <c r="AC22">
+        <v>1986</v>
+      </c>
+      <c r="AD22">
+        <v>1.008</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1530</v>
       </c>
@@ -62837,10 +63614,46 @@
         <v>1.1719999999999999</v>
       </c>
       <c r="P23">
-        <v>0.93600000000000005</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="S23">
+        <v>1987</v>
+      </c>
+      <c r="T23">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="U23">
+        <v>1987</v>
+      </c>
+      <c r="V23">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="W23">
+        <v>1987</v>
+      </c>
+      <c r="X23">
+        <v>0.78</v>
+      </c>
+      <c r="Y23">
+        <v>1987</v>
+      </c>
+      <c r="Z23">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="AA23">
+        <v>1987</v>
+      </c>
+      <c r="AB23">
+        <v>1.1719999999999999</v>
+      </c>
+      <c r="AC23">
+        <v>1987</v>
+      </c>
+      <c r="AD23">
+        <v>0.51400000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1531</v>
       </c>
@@ -62866,10 +63679,46 @@
         <v>1.038</v>
       </c>
       <c r="P24">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="S24">
+        <v>1988</v>
+      </c>
+      <c r="T24">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="U24">
+        <v>1988</v>
+      </c>
+      <c r="V24">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="W24">
+        <v>1988</v>
+      </c>
+      <c r="X24">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="Y24">
+        <v>1988</v>
+      </c>
+      <c r="Z24">
+        <v>0.877</v>
+      </c>
+      <c r="AA24">
+        <v>1988</v>
+      </c>
+      <c r="AB24">
+        <v>1.038</v>
+      </c>
+      <c r="AC24">
+        <v>1988</v>
+      </c>
+      <c r="AD24">
+        <v>0.93600000000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1532</v>
       </c>
@@ -62895,10 +63744,46 @@
         <v>0.94</v>
       </c>
       <c r="P25">
-        <v>0.57099999999999995</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.87</v>
+      </c>
+      <c r="S25">
+        <v>1989</v>
+      </c>
+      <c r="T25">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="U25">
+        <v>1989</v>
+      </c>
+      <c r="V25">
+        <v>0.747</v>
+      </c>
+      <c r="W25">
+        <v>1989</v>
+      </c>
+      <c r="X25">
+        <v>1.004</v>
+      </c>
+      <c r="Y25">
+        <v>1989</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>1989</v>
+      </c>
+      <c r="AB25">
+        <v>0.94</v>
+      </c>
+      <c r="AC25">
+        <v>1989</v>
+      </c>
+      <c r="AD25">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1533</v>
       </c>
@@ -62924,10 +63809,46 @@
         <v>1.024</v>
       </c>
       <c r="P26">
-        <v>0.94699999999999995</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="S26">
+        <v>1990</v>
+      </c>
+      <c r="T26">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="U26">
+        <v>1990</v>
+      </c>
+      <c r="V26">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="W26">
+        <v>1990</v>
+      </c>
+      <c r="X26">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="Y26">
+        <v>1990</v>
+      </c>
+      <c r="Z26">
+        <v>1.018</v>
+      </c>
+      <c r="AA26">
+        <v>1990</v>
+      </c>
+      <c r="AB26">
+        <v>1.024</v>
+      </c>
+      <c r="AC26">
+        <v>1990</v>
+      </c>
+      <c r="AD26">
+        <v>0.57099999999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1534</v>
       </c>
@@ -62953,10 +63874,46 @@
         <v>0.98699999999999999</v>
       </c>
       <c r="P27">
-        <v>0.23100000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="S27">
+        <v>1991</v>
+      </c>
+      <c r="T27">
+        <v>0.69</v>
+      </c>
+      <c r="U27">
+        <v>1991</v>
+      </c>
+      <c r="V27">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="W27">
+        <v>1991</v>
+      </c>
+      <c r="X27">
+        <v>1.2629999999999999</v>
+      </c>
+      <c r="Y27">
+        <v>1991</v>
+      </c>
+      <c r="Z27">
+        <v>1.1060000000000001</v>
+      </c>
+      <c r="AA27">
+        <v>1991</v>
+      </c>
+      <c r="AB27">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="AC27">
+        <v>1991</v>
+      </c>
+      <c r="AD27">
+        <v>0.94699999999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1535</v>
       </c>
@@ -62982,10 +63939,46 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="P28">
-        <v>0.38200000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="S28">
+        <v>1992</v>
+      </c>
+      <c r="T28">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="U28">
+        <v>1992</v>
+      </c>
+      <c r="V28">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="W28">
+        <v>1992</v>
+      </c>
+      <c r="X28">
+        <v>0.83</v>
+      </c>
+      <c r="Y28">
+        <v>1992</v>
+      </c>
+      <c r="Z28">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="AA28">
+        <v>1992</v>
+      </c>
+      <c r="AB28">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AC28">
+        <v>1992</v>
+      </c>
+      <c r="AD28">
+        <v>0.23100000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1536</v>
       </c>
@@ -63011,10 +64004,46 @@
         <v>1.1639999999999999</v>
       </c>
       <c r="P29">
-        <v>0.70399999999999996</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="S29">
+        <v>1993</v>
+      </c>
+      <c r="T29">
+        <v>0.71</v>
+      </c>
+      <c r="U29">
+        <v>1993</v>
+      </c>
+      <c r="V29">
+        <v>0.504</v>
+      </c>
+      <c r="W29">
+        <v>1993</v>
+      </c>
+      <c r="X29">
+        <v>1.401</v>
+      </c>
+      <c r="Y29">
+        <v>1993</v>
+      </c>
+      <c r="Z29">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="AA29">
+        <v>1993</v>
+      </c>
+      <c r="AB29">
+        <v>1.1639999999999999</v>
+      </c>
+      <c r="AC29">
+        <v>1993</v>
+      </c>
+      <c r="AD29">
+        <v>0.38200000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1537</v>
       </c>
@@ -63040,10 +64069,46 @@
         <v>1.117</v>
       </c>
       <c r="P30">
-        <v>0.73199999999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="S30">
+        <v>1994</v>
+      </c>
+      <c r="T30">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="U30">
+        <v>1994</v>
+      </c>
+      <c r="V30">
+        <v>0.498</v>
+      </c>
+      <c r="W30">
+        <v>1994</v>
+      </c>
+      <c r="X30">
+        <v>1.222</v>
+      </c>
+      <c r="Y30">
+        <v>1994</v>
+      </c>
+      <c r="Z30">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="AA30">
+        <v>1994</v>
+      </c>
+      <c r="AB30">
+        <v>1.117</v>
+      </c>
+      <c r="AC30">
+        <v>1994</v>
+      </c>
+      <c r="AD30">
+        <v>0.70399999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1538</v>
       </c>
@@ -63069,10 +64134,46 @@
         <v>1.0669999999999999</v>
       </c>
       <c r="P31">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="S31">
+        <v>1995</v>
+      </c>
+      <c r="T31">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="U31">
+        <v>1995</v>
+      </c>
+      <c r="V31">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="W31">
+        <v>1995</v>
+      </c>
+      <c r="X31">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="Y31">
+        <v>1995</v>
+      </c>
+      <c r="Z31">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="AA31">
+        <v>1995</v>
+      </c>
+      <c r="AB31">
+        <v>1.0669999999999999</v>
+      </c>
+      <c r="AC31">
+        <v>1995</v>
+      </c>
+      <c r="AD31">
+        <v>0.73199999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1539</v>
       </c>
@@ -63098,10 +64199,46 @@
         <v>0.71599999999999997</v>
       </c>
       <c r="P32">
-        <v>1.1759999999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.4</v>
+      </c>
+      <c r="S32">
+        <v>1996</v>
+      </c>
+      <c r="T32">
+        <v>0.71</v>
+      </c>
+      <c r="U32">
+        <v>1996</v>
+      </c>
+      <c r="V32">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="W32">
+        <v>1996</v>
+      </c>
+      <c r="X32">
+        <v>1.0609999999999999</v>
+      </c>
+      <c r="Y32">
+        <v>1996</v>
+      </c>
+      <c r="Z32">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="AA32">
+        <v>1996</v>
+      </c>
+      <c r="AB32">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="AC32">
+        <v>1996</v>
+      </c>
+      <c r="AD32">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1540</v>
       </c>
@@ -63127,10 +64264,46 @@
         <v>1.2030000000000001</v>
       </c>
       <c r="P33">
-        <v>0.68200000000000005</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1.1759999999999999</v>
+      </c>
+      <c r="S33">
+        <v>1997</v>
+      </c>
+      <c r="T33">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="U33">
+        <v>1997</v>
+      </c>
+      <c r="V33">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="W33">
+        <v>1997</v>
+      </c>
+      <c r="X33">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="Y33">
+        <v>1997</v>
+      </c>
+      <c r="Z33">
+        <v>0.53</v>
+      </c>
+      <c r="AA33">
+        <v>1997</v>
+      </c>
+      <c r="AB33">
+        <v>1.2030000000000001</v>
+      </c>
+      <c r="AC33">
+        <v>1997</v>
+      </c>
+      <c r="AD33">
+        <v>1.1759999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1541</v>
       </c>
@@ -63156,10 +64329,46 @@
         <v>0.63100000000000001</v>
       </c>
       <c r="P34">
-        <v>1.0249999999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="S34">
+        <v>1998</v>
+      </c>
+      <c r="T34">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="U34">
+        <v>1998</v>
+      </c>
+      <c r="V34">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="W34">
+        <v>1998</v>
+      </c>
+      <c r="X34">
+        <v>1.0369999999999999</v>
+      </c>
+      <c r="Y34">
+        <v>1998</v>
+      </c>
+      <c r="Z34">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="AA34">
+        <v>1998</v>
+      </c>
+      <c r="AB34">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="AC34">
+        <v>1998</v>
+      </c>
+      <c r="AD34">
+        <v>0.68200000000000005</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1542</v>
       </c>
@@ -63185,10 +64394,46 @@
         <v>1.228</v>
       </c>
       <c r="P35">
-        <v>0.83899999999999997</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="S35">
+        <v>1999</v>
+      </c>
+      <c r="T35">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="U35">
+        <v>1999</v>
+      </c>
+      <c r="V35">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="W35">
+        <v>1999</v>
+      </c>
+      <c r="X35">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="Y35">
+        <v>1999</v>
+      </c>
+      <c r="Z35">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="AA35">
+        <v>1999</v>
+      </c>
+      <c r="AB35">
+        <v>1.228</v>
+      </c>
+      <c r="AC35">
+        <v>1999</v>
+      </c>
+      <c r="AD35">
+        <v>1.0249999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1543</v>
       </c>
@@ -63214,10 +64459,46 @@
         <v>0.65400000000000003</v>
       </c>
       <c r="P36">
-        <v>0.75800000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="S36">
+        <v>2000</v>
+      </c>
+      <c r="T36">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="U36">
+        <v>2000</v>
+      </c>
+      <c r="V36">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="W36">
+        <v>2000</v>
+      </c>
+      <c r="X36">
+        <v>0.622</v>
+      </c>
+      <c r="Y36">
+        <v>2000</v>
+      </c>
+      <c r="Z36">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="AA36">
+        <v>2000</v>
+      </c>
+      <c r="AB36">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="AC36">
+        <v>2000</v>
+      </c>
+      <c r="AD36">
+        <v>0.83899999999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1544</v>
       </c>
@@ -63243,10 +64524,46 @@
         <v>0.98299999999999998</v>
       </c>
       <c r="P37">
-        <v>0.86699999999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="S37">
+        <v>2001</v>
+      </c>
+      <c r="T37">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="U37">
+        <v>2001</v>
+      </c>
+      <c r="V37">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="W37">
+        <v>2001</v>
+      </c>
+      <c r="X37">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="Y37">
+        <v>2001</v>
+      </c>
+      <c r="Z37">
+        <v>0.997</v>
+      </c>
+      <c r="AA37">
+        <v>2001</v>
+      </c>
+      <c r="AB37">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="AC37">
+        <v>2001</v>
+      </c>
+      <c r="AD37">
+        <v>0.75800000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1545</v>
       </c>
@@ -63272,10 +64589,46 @@
         <v>0.85399999999999998</v>
       </c>
       <c r="P38">
-        <v>0.69399999999999995</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="S38">
+        <v>2002</v>
+      </c>
+      <c r="T38">
+        <v>1.0529999999999999</v>
+      </c>
+      <c r="U38">
+        <v>2002</v>
+      </c>
+      <c r="V38">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="W38">
+        <v>2002</v>
+      </c>
+      <c r="X38">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="Y38">
+        <v>2002</v>
+      </c>
+      <c r="Z38">
+        <v>0.89</v>
+      </c>
+      <c r="AA38">
+        <v>2002</v>
+      </c>
+      <c r="AB38">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="AC38">
+        <v>2002</v>
+      </c>
+      <c r="AD38">
+        <v>0.86699999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1546</v>
       </c>
@@ -63301,10 +64654,46 @@
         <v>0.78900000000000003</v>
       </c>
       <c r="P39">
-        <v>1.151</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="S39">
+        <v>2003</v>
+      </c>
+      <c r="T39">
+        <v>1.2989999999999999</v>
+      </c>
+      <c r="U39">
+        <v>2003</v>
+      </c>
+      <c r="V39">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="W39">
+        <v>2003</v>
+      </c>
+      <c r="X39">
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="Y39">
+        <v>2003</v>
+      </c>
+      <c r="Z39">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="AA39">
+        <v>2003</v>
+      </c>
+      <c r="AB39">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="AC39">
+        <v>2003</v>
+      </c>
+      <c r="AD39">
+        <v>0.69399999999999995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1547</v>
       </c>
@@ -63330,10 +64719,46 @@
         <v>1.006</v>
       </c>
       <c r="P40">
-        <v>1.347</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1.151</v>
+      </c>
+      <c r="S40">
+        <v>2004</v>
+      </c>
+      <c r="T40">
+        <v>1.2190000000000001</v>
+      </c>
+      <c r="U40">
+        <v>2004</v>
+      </c>
+      <c r="V40">
+        <v>1.0880000000000001</v>
+      </c>
+      <c r="W40">
+        <v>2004</v>
+      </c>
+      <c r="X40">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="Y40">
+        <v>2004</v>
+      </c>
+      <c r="Z40">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="AA40">
+        <v>2004</v>
+      </c>
+      <c r="AB40">
+        <v>1.006</v>
+      </c>
+      <c r="AC40">
+        <v>2004</v>
+      </c>
+      <c r="AD40">
+        <v>1.151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1548</v>
       </c>
@@ -63359,10 +64784,46 @@
         <v>1.0489999999999999</v>
       </c>
       <c r="P41">
-        <v>0.89500000000000002</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1.347</v>
+      </c>
+      <c r="S41">
+        <v>2005</v>
+      </c>
+      <c r="T41">
+        <v>1.032</v>
+      </c>
+      <c r="U41">
+        <v>2005</v>
+      </c>
+      <c r="V41">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="W41">
+        <v>2005</v>
+      </c>
+      <c r="X41">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="Y41">
+        <v>2005</v>
+      </c>
+      <c r="Z41">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="AA41">
+        <v>2005</v>
+      </c>
+      <c r="AB41">
+        <v>1.0489999999999999</v>
+      </c>
+      <c r="AC41">
+        <v>2005</v>
+      </c>
+      <c r="AD41">
+        <v>1.347</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1549</v>
       </c>
@@ -63388,10 +64849,46 @@
         <v>0.91900000000000004</v>
       </c>
       <c r="P42">
-        <v>1.0980000000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="S42">
+        <v>2006</v>
+      </c>
+      <c r="T42">
+        <v>1.248</v>
+      </c>
+      <c r="U42">
+        <v>2006</v>
+      </c>
+      <c r="V42">
+        <v>1.0840000000000001</v>
+      </c>
+      <c r="W42">
+        <v>2006</v>
+      </c>
+      <c r="X42">
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="Y42">
+        <v>2006</v>
+      </c>
+      <c r="Z42">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="AA42">
+        <v>2006</v>
+      </c>
+      <c r="AB42">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="AC42">
+        <v>2006</v>
+      </c>
+      <c r="AD42">
+        <v>0.89500000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1550</v>
       </c>
@@ -63417,10 +64914,46 @@
         <v>1.081</v>
       </c>
       <c r="P43">
-        <v>0.86799999999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1.0980000000000001</v>
+      </c>
+      <c r="S43">
+        <v>2007</v>
+      </c>
+      <c r="T43">
+        <v>1.155</v>
+      </c>
+      <c r="U43">
+        <v>2007</v>
+      </c>
+      <c r="V43">
+        <v>1.024</v>
+      </c>
+      <c r="W43">
+        <v>2007</v>
+      </c>
+      <c r="X43">
+        <v>1.423</v>
+      </c>
+      <c r="Y43">
+        <v>2007</v>
+      </c>
+      <c r="Z43">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="AA43">
+        <v>2007</v>
+      </c>
+      <c r="AB43">
+        <v>1.081</v>
+      </c>
+      <c r="AC43">
+        <v>2007</v>
+      </c>
+      <c r="AD43">
+        <v>1.0980000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1551</v>
       </c>
@@ -63446,10 +64979,46 @@
         <v>0.73399999999999999</v>
       </c>
       <c r="P44">
-        <v>0.70399999999999996</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="S44">
+        <v>2008</v>
+      </c>
+      <c r="T44">
+        <v>1.1240000000000001</v>
+      </c>
+      <c r="U44">
+        <v>2008</v>
+      </c>
+      <c r="V44">
+        <v>1.29</v>
+      </c>
+      <c r="W44">
+        <v>2008</v>
+      </c>
+      <c r="X44">
+        <v>1.772</v>
+      </c>
+      <c r="Y44">
+        <v>2008</v>
+      </c>
+      <c r="Z44">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="AA44">
+        <v>2008</v>
+      </c>
+      <c r="AB44">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="AC44">
+        <v>2008</v>
+      </c>
+      <c r="AD44">
+        <v>0.86799999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1552</v>
       </c>
@@ -63475,10 +65044,46 @@
         <v>0.71599999999999997</v>
       </c>
       <c r="P45">
-        <v>1.254</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="S45">
+        <v>2009</v>
+      </c>
+      <c r="T45">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="U45">
+        <v>2009</v>
+      </c>
+      <c r="V45">
+        <v>1.228</v>
+      </c>
+      <c r="W45">
+        <v>2009</v>
+      </c>
+      <c r="X45">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="Y45">
+        <v>2009</v>
+      </c>
+      <c r="Z45">
+        <v>0.879</v>
+      </c>
+      <c r="AA45">
+        <v>2009</v>
+      </c>
+      <c r="AB45">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="AC45">
+        <v>2009</v>
+      </c>
+      <c r="AD45">
+        <v>0.70399999999999996</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1553</v>
       </c>
@@ -63504,10 +65109,46 @@
         <v>0.59399999999999997</v>
       </c>
       <c r="P46">
-        <v>1.0509999999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1.254</v>
+      </c>
+      <c r="S46">
+        <v>2010</v>
+      </c>
+      <c r="T46">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="U46">
+        <v>2010</v>
+      </c>
+      <c r="V46">
+        <v>1.4370000000000001</v>
+      </c>
+      <c r="W46">
+        <v>2010</v>
+      </c>
+      <c r="X46">
+        <v>0.877</v>
+      </c>
+      <c r="Y46">
+        <v>2010</v>
+      </c>
+      <c r="Z46">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="AA46">
+        <v>2010</v>
+      </c>
+      <c r="AB46">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="AC46">
+        <v>2010</v>
+      </c>
+      <c r="AD46">
+        <v>1.254</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1554</v>
       </c>
@@ -63533,10 +65174,46 @@
         <v>0.86099999999999999</v>
       </c>
       <c r="P47">
-        <v>1.08</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1.0509999999999999</v>
+      </c>
+      <c r="S47">
+        <v>2011</v>
+      </c>
+      <c r="T47">
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="U47">
+        <v>2011</v>
+      </c>
+      <c r="V47">
+        <v>1.4259999999999999</v>
+      </c>
+      <c r="W47">
+        <v>2011</v>
+      </c>
+      <c r="X47">
+        <v>1.1259999999999999</v>
+      </c>
+      <c r="Y47">
+        <v>2011</v>
+      </c>
+      <c r="Z47">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="AA47">
+        <v>2011</v>
+      </c>
+      <c r="AB47">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="AC47">
+        <v>2011</v>
+      </c>
+      <c r="AD47">
+        <v>1.0509999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1555</v>
       </c>
@@ -63562,10 +65239,46 @@
         <v>0.875</v>
       </c>
       <c r="P48">
-        <v>0.52100000000000002</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1.08</v>
+      </c>
+      <c r="S48">
+        <v>2012</v>
+      </c>
+      <c r="T48">
+        <v>1.0389999999999999</v>
+      </c>
+      <c r="U48">
+        <v>2012</v>
+      </c>
+      <c r="V48">
+        <v>1.1319999999999999</v>
+      </c>
+      <c r="W48">
+        <v>2012</v>
+      </c>
+      <c r="X48">
+        <v>1.5549999999999999</v>
+      </c>
+      <c r="Y48">
+        <v>2012</v>
+      </c>
+      <c r="Z48">
+        <v>1.052</v>
+      </c>
+      <c r="AA48">
+        <v>2012</v>
+      </c>
+      <c r="AB48">
+        <v>0.875</v>
+      </c>
+      <c r="AC48">
+        <v>2012</v>
+      </c>
+      <c r="AD48">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1556</v>
       </c>
@@ -63591,10 +65304,46 @@
         <v>0.71599999999999997</v>
       </c>
       <c r="P49">
-        <v>0.52700000000000002</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="S49">
+        <v>2013</v>
+      </c>
+      <c r="T49">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="U49">
+        <v>2013</v>
+      </c>
+      <c r="V49">
+        <v>1.105</v>
+      </c>
+      <c r="W49">
+        <v>2013</v>
+      </c>
+      <c r="X49">
+        <v>1.3680000000000001</v>
+      </c>
+      <c r="Y49">
+        <v>2013</v>
+      </c>
+      <c r="Z49">
+        <v>0.82</v>
+      </c>
+      <c r="AA49">
+        <v>2013</v>
+      </c>
+      <c r="AB49">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="AC49">
+        <v>2013</v>
+      </c>
+      <c r="AD49">
+        <v>0.52100000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1557</v>
       </c>
@@ -63620,10 +65369,46 @@
         <v>0.52200000000000002</v>
       </c>
       <c r="P50">
-        <v>1.0820000000000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="S50">
+        <v>2014</v>
+      </c>
+      <c r="T50">
+        <v>1.081</v>
+      </c>
+      <c r="U50">
+        <v>2014</v>
+      </c>
+      <c r="V50">
+        <v>1.2669999999999999</v>
+      </c>
+      <c r="W50">
+        <v>2014</v>
+      </c>
+      <c r="X50">
+        <v>1.2150000000000001</v>
+      </c>
+      <c r="Y50">
+        <v>2014</v>
+      </c>
+      <c r="Z50">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="AA50">
+        <v>2014</v>
+      </c>
+      <c r="AB50">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="AC50">
+        <v>2014</v>
+      </c>
+      <c r="AD50">
+        <v>0.52700000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1558</v>
       </c>
@@ -63649,10 +65434,46 @@
         <v>0.83599999999999997</v>
       </c>
       <c r="P51">
-        <v>1.002</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1.0820000000000001</v>
+      </c>
+      <c r="S51">
+        <v>2015</v>
+      </c>
+      <c r="T51">
+        <v>1.048</v>
+      </c>
+      <c r="U51">
+        <v>2015</v>
+      </c>
+      <c r="V51">
+        <v>1.1459999999999999</v>
+      </c>
+      <c r="W51">
+        <v>2015</v>
+      </c>
+      <c r="X51">
+        <v>1.212</v>
+      </c>
+      <c r="Y51">
+        <v>2015</v>
+      </c>
+      <c r="Z51">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="AA51">
+        <v>2015</v>
+      </c>
+      <c r="AB51">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="AC51">
+        <v>2015</v>
+      </c>
+      <c r="AD51">
+        <v>1.0820000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1559</v>
       </c>
@@ -63675,10 +65496,43 @@
         <v>0.76600000000000001</v>
       </c>
       <c r="P52">
-        <v>1.4370000000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1.002</v>
+      </c>
+      <c r="S52">
+        <v>2016</v>
+      </c>
+      <c r="U52">
+        <v>2016</v>
+      </c>
+      <c r="V52">
+        <v>1.35</v>
+      </c>
+      <c r="W52">
+        <v>2016</v>
+      </c>
+      <c r="X52">
+        <v>1.0229999999999999</v>
+      </c>
+      <c r="Y52">
+        <v>2016</v>
+      </c>
+      <c r="Z52">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="AA52">
+        <v>2016</v>
+      </c>
+      <c r="AB52">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="AC52">
+        <v>2016</v>
+      </c>
+      <c r="AD52">
+        <v>1.002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1560</v>
       </c>
@@ -63701,10 +65555,43 @@
         <v>0.47699999999999998</v>
       </c>
       <c r="P53">
-        <v>1.3009999999999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1.4370000000000001</v>
+      </c>
+      <c r="S53">
+        <v>2017</v>
+      </c>
+      <c r="U53">
+        <v>2017</v>
+      </c>
+      <c r="V53">
+        <v>1.55</v>
+      </c>
+      <c r="W53">
+        <v>2017</v>
+      </c>
+      <c r="X53">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="Y53">
+        <v>2017</v>
+      </c>
+      <c r="Z53">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="AA53">
+        <v>2017</v>
+      </c>
+      <c r="AB53">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="AC53">
+        <v>2017</v>
+      </c>
+      <c r="AD53">
+        <v>1.4370000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1561</v>
       </c>
@@ -63727,10 +65614,43 @@
         <v>0.72299999999999998</v>
       </c>
       <c r="P54">
-        <v>1.0880000000000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1.3009999999999999</v>
+      </c>
+      <c r="S54">
+        <v>2018</v>
+      </c>
+      <c r="U54">
+        <v>2018</v>
+      </c>
+      <c r="V54">
+        <v>1.3240000000000001</v>
+      </c>
+      <c r="W54">
+        <v>2018</v>
+      </c>
+      <c r="X54">
+        <v>1.145</v>
+      </c>
+      <c r="Y54">
+        <v>2018</v>
+      </c>
+      <c r="Z54">
+        <v>1.167</v>
+      </c>
+      <c r="AA54">
+        <v>2018</v>
+      </c>
+      <c r="AB54">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="AC54">
+        <v>2018</v>
+      </c>
+      <c r="AD54">
+        <v>1.3009999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1562</v>
       </c>
@@ -63753,10 +65673,43 @@
         <v>0.91900000000000004</v>
       </c>
       <c r="P55">
-        <v>0.99399999999999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1.0880000000000001</v>
+      </c>
+      <c r="S55">
+        <v>2019</v>
+      </c>
+      <c r="U55">
+        <v>2019</v>
+      </c>
+      <c r="V55">
+        <v>1.131</v>
+      </c>
+      <c r="W55">
+        <v>2019</v>
+      </c>
+      <c r="X55">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="Y55">
+        <v>2019</v>
+      </c>
+      <c r="Z55">
+        <v>1.32</v>
+      </c>
+      <c r="AA55">
+        <v>2019</v>
+      </c>
+      <c r="AB55">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="AC55">
+        <v>2019</v>
+      </c>
+      <c r="AD55">
+        <v>1.0880000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1563</v>
       </c>
@@ -63779,10 +65732,43 @@
         <v>0.68100000000000005</v>
       </c>
       <c r="P56">
-        <v>1.048</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="S56">
+        <v>2020</v>
+      </c>
+      <c r="U56">
+        <v>2020</v>
+      </c>
+      <c r="V56">
+        <v>1.319</v>
+      </c>
+      <c r="W56">
+        <v>2020</v>
+      </c>
+      <c r="X56">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="Y56">
+        <v>2020</v>
+      </c>
+      <c r="Z56">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="AA56">
+        <v>2020</v>
+      </c>
+      <c r="AB56">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="AC56">
+        <v>2020</v>
+      </c>
+      <c r="AD56">
+        <v>0.99399999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1564</v>
       </c>
@@ -63805,10 +65791,43 @@
         <v>0.78500000000000003</v>
       </c>
       <c r="P57">
-        <v>0.627</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1.048</v>
+      </c>
+      <c r="S57">
+        <v>2021</v>
+      </c>
+      <c r="U57">
+        <v>2021</v>
+      </c>
+      <c r="V57">
+        <v>1.4530000000000001</v>
+      </c>
+      <c r="W57">
+        <v>2021</v>
+      </c>
+      <c r="X57">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="Y57">
+        <v>2021</v>
+      </c>
+      <c r="Z57">
+        <v>0.93</v>
+      </c>
+      <c r="AA57">
+        <v>2021</v>
+      </c>
+      <c r="AB57">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="AC57">
+        <v>2021</v>
+      </c>
+      <c r="AD57">
+        <v>1.048</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1565</v>
       </c>
@@ -63816,7 +65835,7 @@
         <v>1.2949999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1566</v>
       </c>
@@ -63824,7 +65843,7 @@
         <v>0.83799999999999997</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1567</v>
       </c>
@@ -63832,7 +65851,7 @@
         <v>1.1850000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1568</v>
       </c>
@@ -63840,7 +65859,7 @@
         <v>2.5390000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1569</v>
       </c>
@@ -63848,7 +65867,7 @@
         <v>1.784</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1570</v>
       </c>
@@ -63856,7 +65875,7 @@
         <v>1.391</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1571</v>
       </c>
